--- a/results/I3_N5_M2_T30_C200_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.5057070532271</v>
+        <v>838.6154668145175</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01000022888183594</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.956289566331418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.956289566331418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>357.2499999999949</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.06</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,50 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>3.695361957914272</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>24.4838942084626</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.60181147454999</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.48909622152298</v>
+        <v>7.44590858474082</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.69536195791427</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.23104729676617</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,62 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>243.55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>235.2199999999991</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>228.2399999999992</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>235.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>235.9149999999991</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8299999999988</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.9799999999989</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.7749999999989</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.2549999999988</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.6049999999988</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>243.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>235.2199999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>228.2399999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>235.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>235.9149999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>43.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>35.21999999999915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.23999999999916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.91499999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1652,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1765,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1820,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1875,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1886,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1897,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1908,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1919,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1930,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1952,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1963,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1974,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2026,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2037,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2048,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2059,7 +1959,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
